--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125082a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125082a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>coeficientes de variação das estimativas de distribuição das pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -31,16 +31,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,6 +529,15 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.5944968235848437</v>
+      </c>
+      <c r="D5">
+        <v>5.336969068031261</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -544,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5944968235848437</v>
+        <v>2.347602568073199</v>
       </c>
       <c r="D6">
-        <v>5.336969068031261</v>
+        <v>17.00055741382098</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -558,16 +561,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.347602568073199</v>
+        <v>1.718324393314918</v>
       </c>
       <c r="D7">
-        <v>17.00055741382098</v>
+        <v>15.47061863816953</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.903363733154745</v>
+      </c>
+      <c r="D8">
+        <v>44.28917567047326</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -577,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.718324393314918</v>
+        <v>4.060037269324773</v>
       </c>
       <c r="D9">
-        <v>15.47061863816953</v>
+        <v>26.70743627927272</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -591,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.903363733154745</v>
+        <v>1.911043747700972</v>
       </c>
       <c r="D10">
-        <v>44.28917567047326</v>
+        <v>57.90241899141543</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -605,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.060037269324773</v>
+        <v>4.479349245670178</v>
       </c>
       <c r="D11">
-        <v>26.70743627927272</v>
+        <v>72.7894252421404</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -619,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.911043747700972</v>
+        <v>4.462441686433721</v>
       </c>
       <c r="D12">
-        <v>57.90241899141543</v>
+        <v>22.7430545405326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -633,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.479349245670178</v>
+        <v>3.64149788446141</v>
       </c>
       <c r="D13">
-        <v>72.7894252421404</v>
+        <v>57.34113920903742</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -647,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.462441686433721</v>
+        <v>5.122631974113025</v>
       </c>
       <c r="D14">
-        <v>22.7430545405326</v>
+        <v>47.24205042793125</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -661,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.64149788446141</v>
+        <v>1.669002227674227</v>
       </c>
       <c r="D15">
-        <v>57.34113920903742</v>
+        <v>8.903930464614042</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -675,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.122631974113025</v>
+        <v>6.553472460465457</v>
       </c>
       <c r="D16">
-        <v>47.24205042793125</v>
+        <v>31.25502250375833</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -689,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.669002227674227</v>
+        <v>6.298930008732584</v>
       </c>
       <c r="D17">
-        <v>8.903930464614042</v>
+        <v>28.34518503929662</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -703,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.553472460465457</v>
+        <v>2.641856929794715</v>
       </c>
       <c r="D18">
-        <v>31.25502250375833</v>
+        <v>11.54659080732676</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -717,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.298930008732584</v>
+        <v>5.579116705167273</v>
       </c>
       <c r="D19">
-        <v>28.34518503929662</v>
+        <v>27.89558352583638</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -731,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.641856929794715</v>
+        <v>11.29922696542909</v>
       </c>
       <c r="D20">
-        <v>11.54659080732676</v>
+        <v>36.1575262893731</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -745,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.579116705167273</v>
+        <v>4.860189668514736</v>
       </c>
       <c r="D21">
-        <v>27.89558352583638</v>
+        <v>36.71219572155164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -759,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.29922696542909</v>
+        <v>12.05153002770216</v>
       </c>
       <c r="D22">
-        <v>36.1575262893731</v>
+        <v>32.71129578947728</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -773,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.860189668514736</v>
+        <v>5.282807905926111</v>
       </c>
       <c r="D23">
-        <v>36.71219572155164</v>
+        <v>16.43540237399234</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -787,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.05153002770216</v>
+        <v>1.922206249904097</v>
       </c>
       <c r="D24">
-        <v>32.71129578947728</v>
+        <v>20.1958165058542</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -801,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.282807905926111</v>
+        <v>0.8463668268567697</v>
       </c>
       <c r="D25">
-        <v>16.43540237399234</v>
+        <v>9.870601281053942</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -815,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.922206249904097</v>
+        <v>1.333326180977594</v>
       </c>
       <c r="D26">
-        <v>20.1958165058542</v>
+        <v>16.82646361162648</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -829,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.8463668268567697</v>
+        <v>4.618145742773253</v>
       </c>
       <c r="D27">
-        <v>9.870601281053942</v>
+        <v>34.25124759223496</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -843,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1.333326180977594</v>
+        <v>2.109253539999222</v>
       </c>
       <c r="D28">
-        <v>16.82646361162648</v>
+        <v>24.72545372994108</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -857,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4.618145742773253</v>
+        <v>1.236295201885529</v>
       </c>
       <c r="D29">
-        <v>34.25124759223496</v>
+        <v>14.44387377520284</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -871,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.109253539999222</v>
+        <v>1.155549474488628</v>
       </c>
       <c r="D30">
-        <v>24.72545372994108</v>
+        <v>12.75729815426937</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -885,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.236295201885529</v>
+        <v>1.743914564042221</v>
       </c>
       <c r="D31">
-        <v>14.44387377520284</v>
+        <v>17.93260386142301</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -899,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.155549474488628</v>
+        <v>2.962798203994318</v>
       </c>
       <c r="D32">
-        <v>12.75729815426937</v>
+        <v>28.4080063088867</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -913,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.743914564042221</v>
+        <v>1.670118095855934</v>
       </c>
       <c r="D33">
-        <v>17.93260386142301</v>
+        <v>21.93514715305957</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -927,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.962798203994318</v>
+        <v>1.760311849363019</v>
       </c>
       <c r="D34">
-        <v>28.4080063088867</v>
+        <v>11.15085975737378</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -941,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.670118095855934</v>
+        <v>2.01418638229962</v>
       </c>
       <c r="D35">
-        <v>21.93514715305957</v>
+        <v>30.2127957344943</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -955,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.760311849363019</v>
+        <v>5.15243297578534</v>
       </c>
       <c r="D36">
-        <v>11.15085975737378</v>
+        <v>21.64021849829842</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -969,37 +981,9 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2.01418638229962</v>
+        <v>3.167676706521807</v>
       </c>
       <c r="D37">
-        <v>30.2127957344943</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>5.15243297578534</v>
-      </c>
-      <c r="D38">
-        <v>21.64021849829842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>3.167676706521807</v>
-      </c>
-      <c r="D39">
         <v>14.98989870050498</v>
       </c>
     </row>
